--- a/input_data/new/05_00_00_to_06_00_00.xlsx
+++ b/input_data/new/05_00_00_to_06_00_00.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5 sem\EE5206 Software Project\Project_files\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5 sem\EE5206 Software Project\Project_files\input_data\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3002886-2054-4B1E-8251-FD7BC6541950}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E94509E-C1C8-40D5-BFEE-B3B9A7E801F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,7 +870,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h\.mm\.ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h\.mm\.ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -886,12 +886,24 @@
       <name val="Iskoola Pota"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -921,15 +933,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,12 +1249,15 @@
   <dimension ref="A1:P1084"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -3251,7 +3268,7 @@
       <c r="K43">
         <v>450</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="4">
         <v>390</v>
       </c>
       <c r="M43" t="s">
@@ -5272,7 +5289,7 @@
       <c r="K86">
         <v>450</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="4">
         <v>390</v>
       </c>
       <c r="M86" t="s">
@@ -7293,7 +7310,7 @@
       <c r="K129">
         <v>450</v>
       </c>
-      <c r="L129">
+      <c r="L129" s="4">
         <v>390</v>
       </c>
       <c r="M129" t="s">
@@ -9314,7 +9331,7 @@
       <c r="K172">
         <v>450</v>
       </c>
-      <c r="L172">
+      <c r="L172" s="4">
         <v>390</v>
       </c>
       <c r="M172" t="s">
@@ -11335,7 +11352,7 @@
       <c r="K215">
         <v>450</v>
       </c>
-      <c r="L215">
+      <c r="L215" s="4">
         <v>390</v>
       </c>
       <c r="M215" t="s">
@@ -13356,7 +13373,7 @@
       <c r="K258">
         <v>450</v>
       </c>
-      <c r="L258">
+      <c r="L258" s="4">
         <v>390</v>
       </c>
       <c r="M258" t="s">
@@ -15377,7 +15394,7 @@
       <c r="K301">
         <v>450</v>
       </c>
-      <c r="L301">
+      <c r="L301" s="4">
         <v>390</v>
       </c>
       <c r="M301" t="s">
@@ -17398,7 +17415,7 @@
       <c r="K344">
         <v>450</v>
       </c>
-      <c r="L344">
+      <c r="L344" s="4">
         <v>390</v>
       </c>
       <c r="M344" t="s">
@@ -18291,7 +18308,7 @@
       <c r="K363">
         <v>275</v>
       </c>
-      <c r="L363">
+      <c r="L363" s="5">
         <v>250</v>
       </c>
       <c r="M363" t="s">
@@ -18338,7 +18355,7 @@
       <c r="K364">
         <v>275</v>
       </c>
-      <c r="L364">
+      <c r="L364" s="5">
         <v>250</v>
       </c>
       <c r="M364" t="s">
@@ -18479,7 +18496,7 @@
       <c r="K367">
         <v>275</v>
       </c>
-      <c r="L367">
+      <c r="L367" s="5">
         <v>250</v>
       </c>
       <c r="M367" t="s">
@@ -18526,7 +18543,7 @@
       <c r="K368">
         <v>275</v>
       </c>
-      <c r="L368">
+      <c r="L368" s="5">
         <v>250</v>
       </c>
       <c r="M368" t="s">
@@ -18573,7 +18590,7 @@
       <c r="K369">
         <v>275</v>
       </c>
-      <c r="L369">
+      <c r="L369" s="5">
         <v>250</v>
       </c>
       <c r="M369" t="s">
@@ -18620,7 +18637,7 @@
       <c r="K370">
         <v>275</v>
       </c>
-      <c r="L370">
+      <c r="L370" s="5">
         <v>250</v>
       </c>
       <c r="M370" t="s">
@@ -18667,7 +18684,7 @@
       <c r="K371">
         <v>275</v>
       </c>
-      <c r="L371">
+      <c r="L371" s="5">
         <v>250</v>
       </c>
       <c r="M371" t="s">
@@ -18714,7 +18731,7 @@
       <c r="K372">
         <v>275</v>
       </c>
-      <c r="L372">
+      <c r="L372" s="5">
         <v>250</v>
       </c>
       <c r="M372" t="s">
@@ -18949,7 +18966,7 @@
       <c r="K377">
         <v>275</v>
       </c>
-      <c r="L377">
+      <c r="L377" s="5">
         <v>250</v>
       </c>
       <c r="M377" t="s">
@@ -18996,7 +19013,7 @@
       <c r="K378">
         <v>275</v>
       </c>
-      <c r="L378">
+      <c r="L378" s="5">
         <v>250</v>
       </c>
       <c r="M378" t="s">
@@ -19137,7 +19154,7 @@
       <c r="K381">
         <v>275</v>
       </c>
-      <c r="L381">
+      <c r="L381" s="5">
         <v>250</v>
       </c>
       <c r="M381" t="s">
@@ -19184,7 +19201,7 @@
       <c r="K382">
         <v>275</v>
       </c>
-      <c r="L382">
+      <c r="L382" s="5">
         <v>250</v>
       </c>
       <c r="M382" t="s">
@@ -19231,7 +19248,7 @@
       <c r="K383">
         <v>275</v>
       </c>
-      <c r="L383">
+      <c r="L383" s="5">
         <v>250</v>
       </c>
       <c r="M383" t="s">
@@ -19278,7 +19295,7 @@
       <c r="K384">
         <v>275</v>
       </c>
-      <c r="L384">
+      <c r="L384" s="5">
         <v>250</v>
       </c>
       <c r="M384" t="s">
@@ -19325,7 +19342,7 @@
       <c r="K385">
         <v>275</v>
       </c>
-      <c r="L385">
+      <c r="L385" s="5">
         <v>250</v>
       </c>
       <c r="M385" t="s">
@@ -19372,7 +19389,7 @@
       <c r="K386">
         <v>275</v>
       </c>
-      <c r="L386">
+      <c r="L386" s="5">
         <v>250</v>
       </c>
       <c r="M386" t="s">
@@ -19607,7 +19624,7 @@
       <c r="K391">
         <v>275</v>
       </c>
-      <c r="L391">
+      <c r="L391" s="5">
         <v>250</v>
       </c>
       <c r="M391" t="s">
@@ -19654,7 +19671,7 @@
       <c r="K392">
         <v>275</v>
       </c>
-      <c r="L392">
+      <c r="L392" s="5">
         <v>250</v>
       </c>
       <c r="M392" t="s">
@@ -19795,7 +19812,7 @@
       <c r="K395">
         <v>275</v>
       </c>
-      <c r="L395">
+      <c r="L395" s="5">
         <v>250</v>
       </c>
       <c r="M395" t="s">
@@ -19842,7 +19859,7 @@
       <c r="K396">
         <v>275</v>
       </c>
-      <c r="L396">
+      <c r="L396" s="5">
         <v>250</v>
       </c>
       <c r="M396" t="s">
@@ -19889,7 +19906,7 @@
       <c r="K397">
         <v>275</v>
       </c>
-      <c r="L397">
+      <c r="L397" s="5">
         <v>250</v>
       </c>
       <c r="M397" t="s">
@@ -19936,7 +19953,7 @@
       <c r="K398">
         <v>275</v>
       </c>
-      <c r="L398">
+      <c r="L398" s="5">
         <v>250</v>
       </c>
       <c r="M398" t="s">
@@ -19983,7 +20000,7 @@
       <c r="K399">
         <v>275</v>
       </c>
-      <c r="L399">
+      <c r="L399" s="5">
         <v>250</v>
       </c>
       <c r="M399" t="s">
@@ -20030,7 +20047,7 @@
       <c r="K400">
         <v>275</v>
       </c>
-      <c r="L400">
+      <c r="L400" s="5">
         <v>250</v>
       </c>
       <c r="M400" t="s">
